--- a/IT Project Management/Assessment/risk_management_breakdown.xlsx
+++ b/IT Project Management/Assessment/risk_management_breakdown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\IT Project Management\Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30733293-669C-4F8A-82D5-0BC45F45E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403392D4-23B9-4542-9C15-41ECB9DDD279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{ED9F805A-45C8-40DB-9B9C-36A5756256DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{ED9F805A-45C8-40DB-9B9C-36A5756256DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Risk</t>
   </si>
@@ -129,6 +129,42 @@
   </si>
   <si>
     <t>Long-term System support contracts should be drawn up and agreed upon to ensure system maintenance and support to accommodate breaking changes in services.</t>
+  </si>
+  <si>
+    <t>Mitigation Strategy</t>
+  </si>
+  <si>
+    <t>Contingency Plan</t>
+  </si>
+  <si>
+    <t>Conduct thorough reviews with Product Owner, establish clear scope, timelines and budget for changes.</t>
+  </si>
+  <si>
+    <t>Allocate reserve budget and time, prioritize essential features, plan for scope adjustments as needed.</t>
+  </si>
+  <si>
+    <t>Perform technology compatibility checks post-requirements analysis to match project needs and functional criteria.</t>
+  </si>
+  <si>
+    <t>Prepare for alternative technology solutions, ensuring options align with project requirements.</t>
+  </si>
+  <si>
+    <t>Implement comprehensive testing strategy covering unit, end-to-end and integration tests for all components.</t>
+  </si>
+  <si>
+    <t>Prioritize critical tests, establish mock services for external dependencies, ensure rapid issue resolution.</t>
+  </si>
+  <si>
+    <t>Develop user documentation and schedule training sessions well before system release.</t>
+  </si>
+  <si>
+    <t>Create quick reference guides and provide on-demand training support post-launch to address gaps.</t>
+  </si>
+  <si>
+    <t>Negotiate long-term support contracts early, inluding maintenance and updates for service changes.</t>
+  </si>
+  <si>
+    <t>Establish a flexible support framework to adapt to unforeseen service disruptions or changes</t>
   </si>
 </sst>
 </file>
@@ -253,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -450,6 +486,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -458,11 +544,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,6 +596,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -851,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDEF001-A8A8-4DDC-81C7-CD6D69F9411E}">
-  <dimension ref="B3:I26"/>
+  <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,344 +963,409 @@
     <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="30.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4">
+    <row r="3" spans="2:11" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+    <row r="5" spans="2:11" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
+    <row r="6" spans="2:11" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>3</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
+    <row r="7" spans="2:11" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>6</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11">
+    <row r="8" spans="2:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>6</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16">
+    <row r="9" spans="2:11" ht="103.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>8</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+    <row r="10" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
